--- a/Original Excel Files/E.xlsx
+++ b/Original Excel Files/E.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD35F87-0FCF-4F8C-AEB3-B38E4784FA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2106,7 +2107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -2193,7 +2194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2206,16 +2207,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2224,6 +2218,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2234,6 +2240,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2282,7 +2291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2315,9 +2324,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2350,6 +2376,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2525,3509 +2568,3761 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>451</v>
+      <c r="A3" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1961</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>453</v>
+      <c r="C3" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1990</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" t="s">
-        <v>219</v>
+      <c r="A4" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2004</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" t="s">
-        <v>224</v>
+      <c r="A5" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1993</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="A6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2007</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1977</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1983</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A11" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1975</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A13" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="13">
         <v>1988</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1972</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" t="s">
-        <v>243</v>
+      <c r="G13" s="12" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A14" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1969</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>464</v>
+      <c r="A14" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1993</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>571</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>572</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>573</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>258</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1950</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>270</v>
+      <c r="A19" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1964</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1"/>
+      <c r="A20" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1956</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1959</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="A22" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A24" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" t="s">
+        <v>582</v>
+      </c>
+      <c r="G24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1942</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A26" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1970</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A27" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27" s="11">
         <v>1992</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="D23" s="14">
-        <v>1971</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1974</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" t="s">
-        <v>278</v>
-      </c>
-      <c r="G26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A27" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1998</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>523</v>
+      <c r="G27" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>583</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>584</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A29" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1972</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>526</v>
+      <c r="A29" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" t="s">
+        <v>586</v>
+      </c>
+      <c r="G29" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="13" t="s">
-        <v>527</v>
+      <c r="A30" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="D30" s="14">
-        <v>1971</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>529</v>
+      <c r="C30" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1987</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A31" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="D31" s="14">
-        <v>1960</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>532</v>
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A32" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2002</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>535</v>
+      <c r="A32" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A33" s="13" t="s">
-        <v>536</v>
+      <c r="A33" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="D33" s="14">
-        <v>1999</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>538</v>
+      <c r="C33" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1970</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="13"/>
+      <c r="A34" s="10" t="s">
+        <v>370</v>
+      </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1987</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>590</v>
       </c>
       <c r="B35" t="s">
-        <v>281</v>
+        <v>583</v>
       </c>
       <c r="C35" t="s">
-        <v>282</v>
+        <v>584</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>284</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>285</v>
+        <v>592</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>593</v>
       </c>
       <c r="C36" t="s">
-        <v>282</v>
+        <v>594</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>292</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>68</v>
+      <c r="A38" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1999</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A39" s="13"/>
+      <c r="A39" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
+      <c r="C39" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1918</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A40" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1972</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>541</v>
+      <c r="A40" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A41" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D41" s="14">
-        <v>1977</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>543</v>
+      <c r="A41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A42" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D42" s="14">
-        <v>1974</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>545</v>
+      <c r="A42" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A43" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D43" s="14">
-        <v>1974</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>545</v>
+      <c r="A43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A44" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="D44" s="14">
-        <v>1968</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>547</v>
+      <c r="A44" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1983</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1965</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>300</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="2">
-        <v>1960</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>3</v>
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="9">
-        <v>1960</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A54" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>301</v>
-      </c>
-      <c r="B56" t="s">
-        <v>302</v>
-      </c>
-      <c r="C56" t="s">
-        <v>303</v>
-      </c>
-      <c r="F56" t="s">
-        <v>304</v>
-      </c>
-      <c r="G56" t="s">
-        <v>305</v>
+      <c r="A56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>549</v>
+      </c>
+      <c r="B58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" t="s">
+        <v>550</v>
+      </c>
+      <c r="D58" t="s">
+        <v>551</v>
+      </c>
+      <c r="E58" t="s">
+        <v>552</v>
+      </c>
+      <c r="F58" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
       </c>
       <c r="F59" t="s">
-        <v>318</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>319</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>320</v>
-      </c>
-      <c r="B60" t="s">
-        <v>317</v>
-      </c>
-      <c r="F60" t="s">
-        <v>242</v>
-      </c>
-      <c r="G60" t="s">
-        <v>321</v>
+      <c r="A60" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1975</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="A61" t="s">
+        <v>596</v>
+      </c>
+      <c r="B61" t="s">
+        <v>597</v>
+      </c>
+      <c r="C61" t="s">
+        <v>598</v>
+      </c>
+      <c r="F61" t="s">
+        <v>599</v>
+      </c>
+      <c r="G61" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" t="s">
-        <v>309</v>
-      </c>
-      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
         <v>137</v>
       </c>
-      <c r="F62" t="s">
-        <v>310</v>
-      </c>
-      <c r="G62" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1"/>
+      <c r="D63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A64" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>48</v>
+      <c r="A64" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1987</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1">
       <c r="A65" t="s">
-        <v>567</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>568</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>569</v>
+        <v>144</v>
       </c>
       <c r="F65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A66" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" t="s">
         <v>150</v>
       </c>
-      <c r="G65" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A66" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D66" s="14">
-        <v>1990</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="G66" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A67" s="13" t="s">
-        <v>328</v>
+      <c r="A67" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D67" s="14">
-        <v>2004</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1"/>
+      <c r="C67" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1995</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A68" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F68" s="13">
+        <v>1987</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A69" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D69" s="9">
+      <c r="A69" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>396</v>
+      </c>
+      <c r="B70" t="s">
+        <v>602</v>
+      </c>
+      <c r="C70" t="s">
+        <v>605</v>
+      </c>
+      <c r="F70" t="s">
+        <v>606</v>
+      </c>
+      <c r="G70" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F71" s="13">
+        <v>1979</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F72" s="13">
+        <v>2001</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F73" s="13">
+        <v>1996</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A74" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F74" s="13">
         <v>1993</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A74" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" t="s">
-        <v>52</v>
-      </c>
-      <c r="G74" t="s">
-        <v>53</v>
+      <c r="G74" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A75" s="13" t="s">
-        <v>332</v>
+      <c r="A75" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="D75" s="14">
+      <c r="C75" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F75" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1997</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F77" s="13">
+        <v>1973</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A78" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="F78" s="13">
+        <v>1979</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A79" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F79" s="11">
         <v>2007</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A79" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D79" s="14">
-        <v>1977</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>337</v>
+      <c r="G79" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A80" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D80" s="14">
-        <v>1983</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>340</v>
+      <c r="A80" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" t="s">
+        <v>586</v>
+      </c>
+      <c r="G80" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>609</v>
+      </c>
+      <c r="B81" t="s">
+        <v>610</v>
+      </c>
+      <c r="C81" t="s">
+        <v>611</v>
+      </c>
+      <c r="F81" t="s">
+        <v>612</v>
+      </c>
+      <c r="G81" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>614</v>
+      </c>
+      <c r="B82" t="s">
+        <v>615</v>
+      </c>
+      <c r="C82" t="s">
+        <v>616</v>
+      </c>
+      <c r="F82" t="s">
+        <v>617</v>
+      </c>
+      <c r="G82" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>158</v>
+      </c>
+      <c r="D84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" t="s">
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A85" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F85" s="13">
+        <v>1970</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A86" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D86" s="14">
-        <v>1975</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>343</v>
+      <c r="A86" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" t="s">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>619</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>620</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>621</v>
       </c>
       <c r="F88" t="s">
+        <v>218</v>
+      </c>
+      <c r="G88" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F89" s="13">
+        <v>1963</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A91" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="F92" s="13">
+        <v>1961</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>623</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>624</v>
+      </c>
+      <c r="F93" t="s">
         <v>77</v>
       </c>
-      <c r="G88" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A90" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C90" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90">
-        <v>1993</v>
-      </c>
-      <c r="E90" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A91" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D91" s="14">
-        <v>1988</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" t="s">
-        <v>82</v>
-      </c>
-      <c r="E92" t="s">
-        <v>83</v>
-      </c>
-      <c r="F92" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s">
-        <v>85</v>
+      <c r="G93" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" t="s">
+        <v>178</v>
+      </c>
+      <c r="G94" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>571</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>572</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>573</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="G95" t="s">
-        <v>574</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>626</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>627</v>
       </c>
       <c r="F96" t="s">
-        <v>89</v>
+        <v>628</v>
       </c>
       <c r="G96" t="s">
-        <v>90</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1966</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1972</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>629</v>
+      </c>
+      <c r="B99" t="s">
+        <v>630</v>
+      </c>
+      <c r="C99" t="s">
+        <v>631</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="B100" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="C100" t="s">
-        <v>584</v>
-      </c>
-      <c r="D100" t="s">
-        <v>149</v>
+        <v>635</v>
       </c>
       <c r="F100" t="s">
-        <v>52</v>
+        <v>636</v>
       </c>
       <c r="G100" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" thickBot="1"/>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" t="s">
+        <v>186</v>
+      </c>
+      <c r="F101" t="s">
+        <v>187</v>
+      </c>
+      <c r="G101" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="102" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A102" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D102" s="14">
-        <v>1950</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>349</v>
+      <c r="A102" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A103" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D103" s="14">
-        <v>1964</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>352</v>
+      <c r="A103" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" t="s">
+        <v>169</v>
+      </c>
+      <c r="G103" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A104" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D104" s="14">
-        <v>1956</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>352</v>
+      <c r="A104" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A105" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D105" s="14">
-        <v>1959</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>355</v>
+      <c r="A105" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>650</v>
+      </c>
+      <c r="B106" t="s">
+        <v>645</v>
+      </c>
+      <c r="C106" t="s">
+        <v>646</v>
+      </c>
+      <c r="F106" t="s">
+        <v>310</v>
+      </c>
+      <c r="G106" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>575</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>576</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>577</v>
+        <v>191</v>
       </c>
       <c r="F107" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="G107" t="s">
-        <v>578</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="G108" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" thickBot="1">
       <c r="A109" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="B109" t="s">
-        <v>580</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>581</v>
+        <v>154</v>
       </c>
       <c r="F109" t="s">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="G109" t="s">
-        <v>358</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A110" s="13" t="s">
-        <v>356</v>
+      <c r="A110" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="B110" s="7"/>
-      <c r="C110" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D110" s="14">
-        <v>1942</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" thickBot="1"/>
+      <c r="C110" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F110" s="11">
+        <v>2004</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" t="s">
+        <v>124</v>
+      </c>
+      <c r="G111" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A112" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="D112" s="14">
-        <v>1970</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>361</v>
+      <c r="A112" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" t="s">
+        <v>628</v>
+      </c>
+      <c r="G112" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A113" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D113" s="14">
-        <v>1992</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>363</v>
+      <c r="A113" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" t="s">
+        <v>47</v>
+      </c>
+      <c r="G113" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>362</v>
+        <v>657</v>
       </c>
       <c r="B114" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="C114" t="s">
-        <v>584</v>
-      </c>
-      <c r="D114" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="F114" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="G114" t="s">
-        <v>363</v>
+        <v>659</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1">
       <c r="A115" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="B115" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="C115" t="s">
-        <v>584</v>
-      </c>
-      <c r="D115" t="s">
-        <v>149</v>
+        <v>662</v>
       </c>
       <c r="F115" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="G115" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A116" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D116" s="14">
-        <v>1987</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>371</v>
+      <c r="A116" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A117" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D117" s="14">
-        <v>1987</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" thickBot="1"/>
+      <c r="A117" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A119" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F119" s="13">
+        <v>1974</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
     <row r="120" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A120" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>38</v>
+      <c r="A120" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F120" s="11">
+        <v>1956</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="A121" t="s">
+        <v>442</v>
+      </c>
+      <c r="B121" t="s">
+        <v>668</v>
+      </c>
+      <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A122" t="s">
-        <v>367</v>
-      </c>
-      <c r="B122" t="s">
-        <v>588</v>
-      </c>
-      <c r="C122" t="s">
-        <v>581</v>
-      </c>
-      <c r="F122" t="s">
-        <v>57</v>
-      </c>
-      <c r="G122" t="s">
-        <v>589</v>
+      <c r="A122" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="F122" s="13">
+        <v>1969</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A123" s="13" t="s">
-        <v>367</v>
+      <c r="A123" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="B123" s="7"/>
-      <c r="C123" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="D123" s="14">
-        <v>1970</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>369</v>
+      <c r="C123" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F123" s="11">
+        <v>1983</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>566</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>592</v>
+        <v>210</v>
       </c>
       <c r="B126" t="s">
-        <v>593</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>594</v>
+        <v>212</v>
       </c>
       <c r="F126" t="s">
+        <v>213</v>
+      </c>
+      <c r="G126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="F127" s="13">
+        <v>1961</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" t="s">
+        <v>216</v>
+      </c>
+      <c r="C128" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" t="s">
+        <v>218</v>
+      </c>
+      <c r="G128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A129" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B129" s="9"/>
+      <c r="C129" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F129" s="13">
+        <v>1988</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A130" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" t="s">
+        <v>223</v>
+      </c>
+      <c r="G130" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A131" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" t="s">
         <v>77</v>
       </c>
-      <c r="G126" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>94</v>
-      </c>
-      <c r="B127" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" t="s">
-        <v>96</v>
-      </c>
-      <c r="F127" t="s">
-        <v>97</v>
-      </c>
-      <c r="G127" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A130" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c r="C130" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D130" s="14">
-        <v>1999</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A131" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D131" s="14">
-        <v>1918</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>377</v>
+      <c r="G131" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>228</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>226</v>
+      </c>
+      <c r="F132" t="s">
+        <v>229</v>
+      </c>
+      <c r="G132" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>13</v>
+      <c r="A133" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F133" s="13">
+        <v>1956</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>457</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>669</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" t="s">
-        <v>11</v>
+        <v>670</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>671</v>
+      </c>
+      <c r="B135" t="s">
+        <v>232</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+      <c r="F135" t="s">
+        <v>672</v>
+      </c>
+      <c r="G135" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" t="s">
+        <v>137</v>
+      </c>
+      <c r="F136" t="s">
+        <v>233</v>
+      </c>
+      <c r="G136" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>235</v>
+      </c>
+      <c r="B137" t="s">
+        <v>236</v>
+      </c>
+      <c r="C137" t="s">
+        <v>237</v>
+      </c>
+      <c r="F137" t="s">
+        <v>52</v>
+      </c>
+      <c r="G137" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>554</v>
       </c>
       <c r="B138" t="s">
-        <v>100</v>
+        <v>555</v>
       </c>
       <c r="C138" t="s">
-        <v>101</v>
+        <v>556</v>
       </c>
       <c r="F138" t="s">
-        <v>102</v>
+        <v>557</v>
       </c>
       <c r="G138" t="s">
-        <v>103</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" thickBot="1">
       <c r="A139" t="s">
-        <v>104</v>
+        <v>559</v>
       </c>
       <c r="B139" t="s">
-        <v>105</v>
+        <v>560</v>
       </c>
       <c r="C139" t="s">
-        <v>106</v>
+        <v>561</v>
       </c>
       <c r="F139" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="G139" t="s">
-        <v>107</v>
+        <v>469</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A140" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D140" s="14">
-        <v>1983</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>380</v>
+      <c r="A140" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" t="s">
+        <v>218</v>
+      </c>
+      <c r="G140" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A141" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D141" s="14">
-        <v>1965</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>383</v>
+      <c r="A141" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>18</v>
+      <c r="A142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>19</v>
+      <c r="A143" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F143" s="13">
+        <v>1972</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>14</v>
-      </c>
-      <c r="B144" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>18</v>
+      <c r="A144" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="G145" t="s">
-        <v>19</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" t="s">
+        <v>246</v>
+      </c>
+      <c r="F146" t="s">
+        <v>247</v>
+      </c>
+      <c r="G146" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="G147" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>24</v>
+      <c r="A148" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B148" s="9"/>
+      <c r="C148" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="F148" s="13">
+        <v>1969</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
+      <c r="A149" t="s">
+        <v>254</v>
+      </c>
+      <c r="B149" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" t="s">
+        <v>256</v>
+      </c>
+      <c r="F149" t="s">
+        <v>257</v>
+      </c>
+      <c r="G149" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>108</v>
-      </c>
-      <c r="B150" t="s">
-        <v>109</v>
-      </c>
-      <c r="C150" t="s">
-        <v>110</v>
-      </c>
-      <c r="F150" t="s">
-        <v>111</v>
-      </c>
-      <c r="G150" t="s">
-        <v>112</v>
+      <c r="A150" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F150" s="13">
+        <v>1995</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="C151" t="s">
-        <v>115</v>
-      </c>
-      <c r="D151" t="s">
-        <v>116</v>
-      </c>
-      <c r="E151" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="F151" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="B152" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>29</v>
+      <c r="A153" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>273</v>
+      </c>
+      <c r="D154" t="s">
+        <v>274</v>
+      </c>
+      <c r="E154" t="s">
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>677</v>
+      </c>
+      <c r="B155" t="s">
+        <v>678</v>
+      </c>
+      <c r="C155" t="s">
+        <v>679</v>
+      </c>
+      <c r="F155" t="s">
+        <v>77</v>
+      </c>
+      <c r="G155" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>121</v>
-      </c>
-      <c r="B156" t="s">
-        <v>122</v>
-      </c>
-      <c r="C156" t="s">
-        <v>123</v>
-      </c>
-      <c r="F156" t="s">
-        <v>124</v>
-      </c>
-      <c r="G156" t="s">
-        <v>125</v>
+      <c r="A156" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B156" s="9"/>
+      <c r="C156" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F156" s="13">
+        <v>1958</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>563</v>
       </c>
       <c r="C157" t="s">
-        <v>550</v>
-      </c>
-      <c r="D157" t="s">
-        <v>551</v>
-      </c>
-      <c r="E157" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F157" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="G157" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1">
       <c r="A158" t="s">
-        <v>126</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s">
-        <v>80</v>
+        <v>681</v>
       </c>
       <c r="C158" t="s">
-        <v>127</v>
+        <v>682</v>
       </c>
       <c r="F158" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="G158" t="s">
-        <v>129</v>
+        <v>683</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A159" s="13" t="s">
-        <v>384</v>
+      <c r="A159" s="10" t="s">
+        <v>470</v>
       </c>
       <c r="B159" s="7"/>
-      <c r="C159" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="D159" s="14">
-        <v>1975</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>386</v>
+      <c r="C159" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="F159" s="11">
+        <v>1972</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="15"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="15"/>
+      <c r="A160" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F160" s="13">
+        <v>1963</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="B161" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="C161" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="F161" t="s">
-        <v>599</v>
+        <v>278</v>
       </c>
       <c r="G161" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="15"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="15"/>
+      <c r="A162" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="F162" s="13">
+        <v>1972</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" t="s">
-        <v>130</v>
-      </c>
-      <c r="B163" t="s">
-        <v>131</v>
-      </c>
-      <c r="C163" t="s">
-        <v>132</v>
-      </c>
-      <c r="F163" t="s">
-        <v>133</v>
-      </c>
-      <c r="G163" t="s">
-        <v>134</v>
+      <c r="A163" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F163" s="13">
+        <v>1980</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A164" t="s">
-        <v>135</v>
-      </c>
-      <c r="B164" t="s">
-        <v>136</v>
-      </c>
-      <c r="C164" t="s">
-        <v>137</v>
-      </c>
-      <c r="D164" t="s">
-        <v>138</v>
-      </c>
-      <c r="E164" t="s">
-        <v>139</v>
-      </c>
-      <c r="F164" t="s">
-        <v>140</v>
-      </c>
-      <c r="G164" t="s">
-        <v>141</v>
+      <c r="A164" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="F164" s="13">
+        <v>2001</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A165" s="13" t="s">
-        <v>387</v>
+      <c r="A165" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="B165" s="7"/>
-      <c r="C165" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="D165" s="14">
-        <v>1987</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>389</v>
+      <c r="C165" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="F165" s="11">
+        <v>1988</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="15"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="15"/>
+      <c r="A166" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="F166" s="13">
+        <v>2009</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" t="s">
-        <v>142</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="A167" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="F167" s="13">
+        <v>1992</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="B168" s="9"/>
+      <c r="C168" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F168" s="13">
+        <v>1971</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B169" s="9"/>
+      <c r="C169" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="F169" s="13">
+        <v>1974</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A170" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B170" s="9"/>
+      <c r="C170" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F170" s="13">
+        <v>2007</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A171" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F171" s="11">
+        <v>2006</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A172" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F172" s="11">
+        <v>2004</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="F173" s="13">
+        <v>2004</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F174" s="13">
+        <v>2004</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F175" s="13">
+        <v>2001</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A176" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F176" s="13">
+        <v>2006</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A177" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C177" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F167" t="s">
-        <v>57</v>
-      </c>
-      <c r="G167" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
-        <v>146</v>
-      </c>
-      <c r="B168" t="s">
-        <v>147</v>
-      </c>
-      <c r="C168" t="s">
-        <v>148</v>
-      </c>
-      <c r="D168" t="s">
-        <v>149</v>
-      </c>
-      <c r="F168" t="s">
-        <v>150</v>
-      </c>
-      <c r="G168" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="15"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="15"/>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A171" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B171" s="7"/>
-      <c r="C171" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D171" s="14">
-        <v>1995</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A172" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="D172" s="14">
-        <v>1987</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
-        <v>608</v>
-      </c>
-      <c r="B173" t="s">
-        <v>602</v>
-      </c>
-      <c r="C173" t="s">
-        <v>605</v>
-      </c>
-      <c r="F173" t="s">
-        <v>586</v>
-      </c>
-      <c r="G173" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>609</v>
-      </c>
-      <c r="B174" t="s">
-        <v>610</v>
-      </c>
-      <c r="C174" t="s">
-        <v>611</v>
-      </c>
-      <c r="F174" t="s">
-        <v>612</v>
-      </c>
-      <c r="G174" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
-        <v>601</v>
-      </c>
-      <c r="B175" t="s">
-        <v>602</v>
-      </c>
-      <c r="C175" t="s">
-        <v>603</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" t="s">
+        <v>278</v>
+      </c>
+      <c r="G177" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A178" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B178" s="7"/>
+      <c r="C178" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="F178" s="11">
+        <v>1998</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A179" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F179" s="11">
+        <v>1972</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A180" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" t="s">
+        <v>283</v>
+      </c>
+      <c r="G180" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A181" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" t="s">
+        <v>286</v>
+      </c>
+      <c r="G181" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A182" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" t="s">
+        <v>291</v>
+      </c>
+      <c r="G182" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A183" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" t="s">
+        <v>67</v>
+      </c>
+      <c r="G183" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A184" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" t="s">
+        <v>252</v>
+      </c>
+      <c r="G184" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A185" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" t="s">
         <v>37</v>
       </c>
-      <c r="G175" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A176" t="s">
-        <v>396</v>
-      </c>
-      <c r="B176" t="s">
-        <v>602</v>
-      </c>
-      <c r="C176" t="s">
-        <v>605</v>
-      </c>
-      <c r="F176" t="s">
-        <v>606</v>
-      </c>
-      <c r="G176" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A177" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D177" s="14">
-        <v>1979</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A178" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="B178" s="7"/>
-      <c r="C178" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D178" s="14">
-        <v>2001</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A179" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="B179" s="7"/>
-      <c r="C179" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D179" s="14">
-        <v>1996</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A180" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B180" s="7"/>
-      <c r="C180" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="D180" s="14">
-        <v>1993</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A181" s="13"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="13"/>
-    </row>
-    <row r="182" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A182" s="13"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="13"/>
-    </row>
-    <row r="183" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A183" s="13"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="13"/>
-    </row>
-    <row r="184" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A184" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D184" s="14">
-        <v>2009</v>
-      </c>
-      <c r="E184" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A185" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B185" s="7"/>
-      <c r="C185" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D185" s="14">
-        <v>1997</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>413</v>
+      <c r="G185" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A186" s="13" t="s">
-        <v>414</v>
+      <c r="A186" s="10" t="s">
+        <v>527</v>
       </c>
       <c r="B186" s="7"/>
-      <c r="C186" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D186" s="14">
-        <v>1973</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>416</v>
+      <c r="C186" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F186" s="11">
+        <v>1971</v>
+      </c>
+      <c r="G186" s="10" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A187" s="13" t="s">
-        <v>417</v>
+      <c r="A187" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="B187" s="7"/>
-      <c r="C187" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D187" s="14">
-        <v>1979</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>419</v>
+      <c r="C187" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="F187" s="11">
+        <v>1960</v>
+      </c>
+      <c r="G187" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A188" s="13" t="s">
-        <v>420</v>
+      <c r="A188" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="B188" s="7"/>
-      <c r="C188" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="D188" s="14">
-        <v>2007</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>422</v>
+      <c r="C188" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="F188" s="11">
+        <v>2002</v>
+      </c>
+      <c r="G188" s="10" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>614</v>
+        <v>301</v>
       </c>
       <c r="B189" t="s">
-        <v>615</v>
+        <v>302</v>
       </c>
       <c r="C189" t="s">
-        <v>616</v>
+        <v>303</v>
       </c>
       <c r="F189" t="s">
-        <v>617</v>
+        <v>304</v>
       </c>
       <c r="G189" t="s">
-        <v>618</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="F190" s="13">
+        <v>1999</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="B191" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="C191" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="D191" t="s">
-        <v>159</v>
+        <v>309</v>
       </c>
       <c r="E191" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F191" t="s">
-        <v>124</v>
+        <v>310</v>
       </c>
       <c r="G191" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15.75" thickBot="1"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A192" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F192" s="13">
+        <v>1972</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
     <row r="193" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A193" s="13" t="s">
-        <v>423</v>
+      <c r="A193" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="B193" s="7"/>
-      <c r="C193" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="D193" s="14">
-        <v>1970</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>425</v>
+      <c r="C193" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F193" s="11">
+        <v>1977</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B194" s="9"/>
+      <c r="C194" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F194" s="13">
+        <v>1974</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" t="s">
-        <v>162</v>
-      </c>
-      <c r="B195" t="s">
-        <v>163</v>
-      </c>
-      <c r="C195" t="s">
-        <v>164</v>
-      </c>
-      <c r="F195" t="s">
-        <v>77</v>
-      </c>
-      <c r="G195" t="s">
-        <v>165</v>
+      <c r="A195" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B195" s="9"/>
+      <c r="C195" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F195" s="13">
+        <v>1974</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B196" s="9"/>
+      <c r="C196" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F196" s="13">
+        <v>1968</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" t="s">
-        <v>166</v>
-      </c>
-      <c r="B198" t="s">
-        <v>167</v>
-      </c>
-      <c r="C198" t="s">
-        <v>168</v>
-      </c>
-      <c r="F198" t="s">
-        <v>169</v>
-      </c>
-      <c r="G198" t="s">
-        <v>170</v>
+      <c r="A198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="2">
+        <v>1960</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="15"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="15"/>
+      <c r="A199" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="18">
+        <v>1960</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>619</v>
+        <v>312</v>
       </c>
       <c r="B200" t="s">
-        <v>620</v>
+        <v>313</v>
       </c>
       <c r="C200" t="s">
-        <v>621</v>
+        <v>314</v>
       </c>
       <c r="F200" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="G200" t="s">
-        <v>622</v>
+        <v>315</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15.75" thickBot="1">
       <c r="A201" t="s">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="B201" t="s">
-        <v>172</v>
-      </c>
-      <c r="C201" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="F201" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="G201" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A202" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B202" s="7"/>
-      <c r="C202" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D202" s="14">
-        <v>1963</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" t="s">
-        <v>54</v>
-      </c>
-      <c r="B203" t="s">
-        <v>55</v>
-      </c>
-      <c r="C203" t="s">
-        <v>56</v>
-      </c>
-      <c r="F203" t="s">
-        <v>57</v>
-      </c>
-      <c r="G203" t="s">
-        <v>58</v>
+      <c r="A202" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" t="s">
+        <v>242</v>
+      </c>
+      <c r="G202" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="206" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A206" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="B206" s="7"/>
-      <c r="C206" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D206" s="14">
-        <v>1961</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" t="s">
-        <v>623</v>
-      </c>
-      <c r="B207" t="s">
-        <v>194</v>
-      </c>
-      <c r="C207" t="s">
-        <v>624</v>
-      </c>
-      <c r="F207" t="s">
-        <v>77</v>
-      </c>
-      <c r="G207" t="s">
-        <v>625</v>
-      </c>
+      <c r="A206" s="14"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" t="s">
-        <v>175</v>
-      </c>
-      <c r="B208" t="s">
-        <v>176</v>
-      </c>
-      <c r="C208" t="s">
-        <v>177</v>
-      </c>
-      <c r="F208" t="s">
-        <v>178</v>
-      </c>
-      <c r="G208" t="s">
-        <v>179</v>
-      </c>
+      <c r="A208" s="12"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A209" t="s">
-        <v>180</v>
-      </c>
-      <c r="B209" t="s">
-        <v>181</v>
-      </c>
-      <c r="C209" t="s">
-        <v>182</v>
-      </c>
-      <c r="F209" t="s">
-        <v>128</v>
-      </c>
-      <c r="G209" t="s">
-        <v>183</v>
-      </c>
+      <c r="A209" s="12"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A210" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="B210" s="7"/>
-      <c r="C210" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D210" s="14">
-        <v>1966</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A211" t="s">
-        <v>626</v>
-      </c>
-      <c r="B211" t="s">
-        <v>181</v>
-      </c>
-      <c r="C211" t="s">
-        <v>627</v>
-      </c>
-      <c r="F211" t="s">
-        <v>628</v>
-      </c>
-      <c r="G211" t="s">
-        <v>433</v>
-      </c>
-    </row>
+      <c r="A210" s="14"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="212" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A212" s="13"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="13"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
       <c r="D212" s="14"/>
-      <c r="E212" s="13"/>
+      <c r="E212" s="14"/>
     </row>
     <row r="213" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A213" s="13"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="13"/>
+      <c r="A213" s="14"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
       <c r="D213" s="14"/>
-      <c r="E213" s="13"/>
+      <c r="E213" s="14"/>
     </row>
     <row r="214" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A214" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="B214" s="7"/>
-      <c r="C214" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D214" s="14">
-        <v>1972</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" t="s">
-        <v>629</v>
-      </c>
-      <c r="B215" t="s">
-        <v>630</v>
-      </c>
-      <c r="C215" t="s">
-        <v>631</v>
-      </c>
-      <c r="F215" t="s">
-        <v>17</v>
-      </c>
-      <c r="G215" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" t="s">
-        <v>633</v>
-      </c>
-      <c r="B217" t="s">
-        <v>634</v>
-      </c>
-      <c r="C217" t="s">
-        <v>635</v>
-      </c>
-      <c r="F217" t="s">
-        <v>636</v>
-      </c>
-      <c r="G217" t="s">
-        <v>637</v>
-      </c>
+      <c r="A214" s="14"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" t="s">
-        <v>184</v>
-      </c>
-      <c r="B219" t="s">
-        <v>185</v>
-      </c>
-      <c r="C219" t="s">
-        <v>186</v>
-      </c>
-      <c r="F219" t="s">
-        <v>187</v>
-      </c>
-      <c r="G219" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" t="s">
-        <v>638</v>
-      </c>
-      <c r="B220" t="s">
-        <v>194</v>
-      </c>
-      <c r="C220" t="s">
-        <v>624</v>
-      </c>
-      <c r="F220" t="s">
-        <v>32</v>
-      </c>
-      <c r="G220" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" t="s">
-        <v>640</v>
-      </c>
-      <c r="B221" t="s">
-        <v>641</v>
-      </c>
-      <c r="C221" t="s">
-        <v>642</v>
-      </c>
-      <c r="F221" t="s">
-        <v>169</v>
-      </c>
-      <c r="G221" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" t="s">
-        <v>644</v>
-      </c>
-      <c r="B222" t="s">
-        <v>645</v>
-      </c>
-      <c r="C222" t="s">
-        <v>646</v>
-      </c>
-      <c r="F222" t="s">
-        <v>37</v>
-      </c>
-      <c r="G222" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" t="s">
-        <v>648</v>
-      </c>
-      <c r="B223" t="s">
-        <v>645</v>
-      </c>
-      <c r="C223" t="s">
-        <v>646</v>
-      </c>
-      <c r="F223" t="s">
-        <v>37</v>
-      </c>
-      <c r="G223" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" t="s">
-        <v>650</v>
-      </c>
-      <c r="B224" t="s">
-        <v>645</v>
-      </c>
-      <c r="C224" t="s">
-        <v>646</v>
-      </c>
-      <c r="F224" t="s">
-        <v>310</v>
-      </c>
-      <c r="G224" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" t="s">
-        <v>189</v>
-      </c>
-      <c r="B225" t="s">
-        <v>190</v>
-      </c>
-      <c r="C225" t="s">
-        <v>191</v>
-      </c>
-      <c r="F225" t="s">
-        <v>133</v>
-      </c>
-      <c r="G225" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" t="s">
-        <v>193</v>
-      </c>
-      <c r="B226" t="s">
-        <v>194</v>
-      </c>
-      <c r="C226" t="s">
-        <v>195</v>
-      </c>
-      <c r="F226" t="s">
-        <v>196</v>
-      </c>
-      <c r="G226" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A227" t="s">
-        <v>198</v>
-      </c>
-      <c r="B227" t="s">
-        <v>199</v>
-      </c>
-      <c r="C227" t="s">
-        <v>200</v>
-      </c>
-      <c r="F227" t="s">
-        <v>124</v>
-      </c>
-      <c r="G227" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A228" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B228" s="7"/>
-      <c r="C228" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="D228" s="14">
-        <v>2004</v>
-      </c>
-      <c r="E228" s="13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" t="s">
-        <v>652</v>
-      </c>
-      <c r="B241" t="s">
-        <v>153</v>
-      </c>
-      <c r="C241" t="s">
-        <v>154</v>
-      </c>
-      <c r="F241" t="s">
-        <v>77</v>
-      </c>
-      <c r="G241" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" t="s">
-        <v>152</v>
-      </c>
-      <c r="B242" t="s">
-        <v>153</v>
-      </c>
-      <c r="C242" t="s">
-        <v>154</v>
-      </c>
-      <c r="F242" t="s">
-        <v>32</v>
-      </c>
-      <c r="G242" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" t="s">
-        <v>653</v>
-      </c>
-      <c r="B243" t="s">
-        <v>654</v>
-      </c>
-      <c r="C243" t="s">
-        <v>655</v>
-      </c>
-      <c r="F243" t="s">
-        <v>628</v>
-      </c>
-      <c r="G243" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" t="s">
-        <v>202</v>
-      </c>
-      <c r="B244" t="s">
-        <v>203</v>
-      </c>
-      <c r="C244" t="s">
-        <v>204</v>
-      </c>
-      <c r="F244" t="s">
-        <v>47</v>
-      </c>
-      <c r="G244" t="s">
-        <v>205</v>
-      </c>
+      <c r="A219" s="4"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="228" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A228" s="14"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" t="s">
-        <v>657</v>
-      </c>
-      <c r="B245" t="s">
-        <v>658</v>
-      </c>
-      <c r="C245" t="s">
-        <v>241</v>
-      </c>
-      <c r="F245" t="s">
-        <v>169</v>
-      </c>
-      <c r="G245" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" t="s">
-        <v>660</v>
-      </c>
-      <c r="B247" t="s">
-        <v>661</v>
-      </c>
-      <c r="C247" t="s">
-        <v>662</v>
-      </c>
-      <c r="F247" t="s">
-        <v>663</v>
-      </c>
-      <c r="G247" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" t="s">
-        <v>665</v>
-      </c>
-      <c r="B248" t="s">
-        <v>666</v>
-      </c>
-      <c r="C248" t="s">
-        <v>9</v>
-      </c>
-      <c r="F248" t="s">
-        <v>17</v>
-      </c>
-      <c r="G248" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A249" t="s">
-        <v>206</v>
-      </c>
-      <c r="B249" t="s">
-        <v>207</v>
-      </c>
-      <c r="C249" t="s">
-        <v>208</v>
-      </c>
-      <c r="F249" t="s">
-        <v>6</v>
-      </c>
-      <c r="G249" t="s">
-        <v>209</v>
-      </c>
-    </row>
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="250" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A250" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B250" s="7"/>
-      <c r="C250" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="D250" s="14">
-        <v>1974</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>441</v>
-      </c>
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
     </row>
     <row r="251" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A251" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="B251" s="7"/>
-      <c r="C251" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="D251" s="14">
-        <v>1956</v>
-      </c>
-      <c r="E251" s="13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A252" t="s">
-        <v>442</v>
-      </c>
-      <c r="B252" t="s">
-        <v>668</v>
-      </c>
-      <c r="C252" t="s">
-        <v>46</v>
-      </c>
-      <c r="F252" t="s">
-        <v>128</v>
-      </c>
-      <c r="G252" t="s">
-        <v>444</v>
-      </c>
-    </row>
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="253" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A253" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B253" s="7"/>
-      <c r="C253" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D253" s="14">
-        <v>1969</v>
-      </c>
-      <c r="E253" s="13" t="s">
-        <v>447</v>
-      </c>
+      <c r="A253" s="14"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
     </row>
     <row r="254" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A254" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="B254" s="7"/>
-      <c r="C254" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="D254" s="14">
-        <v>1983</v>
-      </c>
-      <c r="E254" s="13" t="s">
-        <v>450</v>
-      </c>
+      <c r="A254" s="14"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" t="s">
-        <v>566</v>
-      </c>
-      <c r="B255" t="s">
-        <v>30</v>
-      </c>
-      <c r="C255" t="s">
-        <v>31</v>
-      </c>
-      <c r="F255" t="s">
-        <v>32</v>
-      </c>
-      <c r="G255" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" t="s">
-        <v>210</v>
-      </c>
-      <c r="B257" t="s">
-        <v>211</v>
-      </c>
-      <c r="C257" t="s">
-        <v>212</v>
-      </c>
-      <c r="F257" t="s">
-        <v>213</v>
-      </c>
-      <c r="G257" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" t="s">
-        <v>225</v>
-      </c>
-      <c r="B259" t="s">
-        <v>22</v>
-      </c>
-      <c r="C259" t="s">
-        <v>226</v>
-      </c>
-      <c r="F259" t="s">
-        <v>77</v>
-      </c>
-      <c r="G259" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A260" t="s">
-        <v>228</v>
-      </c>
-      <c r="B260" t="s">
-        <v>22</v>
-      </c>
-      <c r="C260" t="s">
-        <v>226</v>
-      </c>
-      <c r="F260" t="s">
-        <v>229</v>
-      </c>
-      <c r="G260" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A261" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="B261" s="7"/>
-      <c r="C261" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D261" s="14">
-        <v>1956</v>
-      </c>
-      <c r="E261" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" t="s">
-        <v>457</v>
-      </c>
-      <c r="B262" t="s">
-        <v>669</v>
-      </c>
-      <c r="C262" t="s">
-        <v>670</v>
-      </c>
-      <c r="F262" t="s">
-        <v>128</v>
-      </c>
-      <c r="G262" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" t="s">
-        <v>231</v>
-      </c>
-      <c r="B263" t="s">
-        <v>232</v>
-      </c>
-      <c r="C263" t="s">
-        <v>137</v>
-      </c>
-      <c r="F263" t="s">
-        <v>233</v>
-      </c>
-      <c r="G263" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" t="s">
-        <v>671</v>
-      </c>
-      <c r="B264" t="s">
-        <v>232</v>
-      </c>
-      <c r="C264" t="s">
-        <v>137</v>
-      </c>
-      <c r="F264" t="s">
-        <v>672</v>
-      </c>
-      <c r="G264" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" t="s">
-        <v>235</v>
-      </c>
-      <c r="B267" t="s">
-        <v>236</v>
-      </c>
-      <c r="C267" t="s">
-        <v>237</v>
-      </c>
-      <c r="F267" t="s">
-        <v>52</v>
-      </c>
-      <c r="G267" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" t="s">
-        <v>554</v>
-      </c>
-      <c r="B269" t="s">
-        <v>555</v>
-      </c>
-      <c r="C269" t="s">
-        <v>556</v>
-      </c>
-      <c r="F269" t="s">
-        <v>557</v>
-      </c>
-      <c r="G269" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" t="s">
-        <v>559</v>
-      </c>
-      <c r="B270" t="s">
-        <v>560</v>
-      </c>
-      <c r="C270" t="s">
-        <v>561</v>
-      </c>
-      <c r="F270" t="s">
-        <v>196</v>
-      </c>
-      <c r="G270" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A271" t="s">
-        <v>673</v>
-      </c>
-      <c r="B271" t="s">
-        <v>674</v>
-      </c>
-      <c r="C271" t="s">
-        <v>675</v>
-      </c>
-      <c r="F271" t="s">
-        <v>218</v>
-      </c>
-      <c r="G271" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A272" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="B272" s="7"/>
-      <c r="C272" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="D272" s="14">
-        <v>1995</v>
-      </c>
-      <c r="E272" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" t="s">
-        <v>259</v>
-      </c>
-      <c r="B274" t="s">
-        <v>260</v>
-      </c>
-      <c r="C274" t="s">
-        <v>261</v>
-      </c>
-      <c r="F274" t="s">
-        <v>37</v>
-      </c>
-      <c r="G274" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" t="s">
-        <v>263</v>
-      </c>
-      <c r="B275" t="s">
-        <v>264</v>
-      </c>
-      <c r="C275" t="s">
-        <v>265</v>
-      </c>
-      <c r="F275" t="s">
-        <v>266</v>
-      </c>
-      <c r="G275" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" t="s">
-        <v>677</v>
-      </c>
-      <c r="B277" t="s">
-        <v>678</v>
-      </c>
-      <c r="C277" t="s">
-        <v>679</v>
-      </c>
-      <c r="F277" t="s">
-        <v>77</v>
-      </c>
-      <c r="G277" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="279" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A279" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="B279" s="7"/>
-      <c r="C279" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D279" s="14">
-        <v>1958</v>
-      </c>
-      <c r="E279" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A280" s="13"/>
-      <c r="B280" s="7"/>
-      <c r="C280" s="13"/>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="12"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="12"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="12"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="12"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="12"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="12"/>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A260" s="12"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="12"/>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="12"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="12"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="12"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="12"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="12"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="12"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="12"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="12"/>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="272" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A272" s="14"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="12"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="12"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="12"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="12"/>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="279" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
       <c r="D280" s="14"/>
-      <c r="E280" s="13"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" t="s">
-        <v>562</v>
-      </c>
-      <c r="B281" t="s">
-        <v>563</v>
-      </c>
-      <c r="C281" t="s">
-        <v>564</v>
-      </c>
-      <c r="F281" t="s">
-        <v>102</v>
-      </c>
-      <c r="G281" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A282" t="s">
-        <v>470</v>
-      </c>
-      <c r="B282" t="s">
-        <v>681</v>
-      </c>
-      <c r="C282" t="s">
-        <v>682</v>
-      </c>
-      <c r="F282" t="s">
-        <v>17</v>
-      </c>
-      <c r="G282" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A283" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="B283" s="7"/>
-      <c r="C283" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D283" s="14">
-        <v>1972</v>
-      </c>
-      <c r="E283" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A284" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="B284" s="7"/>
-      <c r="C284" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D284" s="14">
-        <v>1963</v>
-      </c>
-      <c r="E284" s="13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A285" s="13"/>
-      <c r="B285" s="7"/>
-      <c r="C285" s="13"/>
+      <c r="E280" s="14"/>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="283" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="14"/>
+    </row>
+    <row r="285" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
       <c r="D285" s="14"/>
-      <c r="E285" s="13"/>
-    </row>
-    <row r="286" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A286" s="13"/>
-      <c r="B286" s="7"/>
-      <c r="C286" s="13"/>
+      <c r="E285" s="14"/>
+    </row>
+    <row r="286" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
       <c r="D286" s="14"/>
-      <c r="E286" s="13"/>
-    </row>
-    <row r="287" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A287" t="s">
-        <v>684</v>
-      </c>
-      <c r="B287" t="s">
-        <v>685</v>
-      </c>
-      <c r="C287" t="s">
-        <v>686</v>
-      </c>
-      <c r="F287" t="s">
-        <v>278</v>
-      </c>
-      <c r="G287" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A288" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="B288" s="7"/>
-      <c r="C288" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="D288" s="14">
-        <v>1972</v>
-      </c>
-      <c r="E288" s="13" t="s">
-        <v>478</v>
-      </c>
+      <c r="E286" s="14"/>
+    </row>
+    <row r="287" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="288" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="14"/>
     </row>
     <row r="289" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A289" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="B289" s="7"/>
-      <c r="C289" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="D289" s="14">
-        <v>1980</v>
-      </c>
-      <c r="E289" s="13" t="s">
-        <v>481</v>
-      </c>
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
     </row>
     <row r="290" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A290" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="B290" s="7"/>
-      <c r="C290" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="D290" s="14">
-        <v>2001</v>
-      </c>
-      <c r="E290" s="13" t="s">
-        <v>484</v>
-      </c>
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
     </row>
     <row r="291" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A291" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="B291" s="7"/>
-      <c r="C291" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="D291" s="14">
-        <v>1988</v>
-      </c>
-      <c r="E291" s="13" t="s">
-        <v>487</v>
-      </c>
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
     </row>
     <row r="292" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A292" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="B292" s="7"/>
-      <c r="C292" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="D292" s="14">
-        <v>2009</v>
-      </c>
-      <c r="E292" s="13" t="s">
-        <v>490</v>
-      </c>
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
     </row>
     <row r="293" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="294" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A294" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B294" s="7"/>
-      <c r="C294" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="D294" s="14">
-        <v>2007</v>
-      </c>
-      <c r="E294" s="13" t="s">
-        <v>502</v>
-      </c>
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
     </row>
     <row r="295" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A295" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B295" s="7"/>
-      <c r="C295" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D295" s="14">
-        <v>2006</v>
-      </c>
-      <c r="E295" s="13" t="s">
-        <v>505</v>
-      </c>
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
     </row>
     <row r="296" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A296" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B296" s="7"/>
-      <c r="C296" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="D296" s="14">
-        <v>2004</v>
-      </c>
-      <c r="E296" s="13" t="s">
-        <v>508</v>
-      </c>
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
     </row>
     <row r="297" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A297" s="13" t="s">
-        <v>509</v>
-      </c>
+      <c r="A297" s="10"/>
       <c r="B297" s="7"/>
-      <c r="C297" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="D297" s="14">
-        <v>2004</v>
-      </c>
-      <c r="E297" s="13" t="s">
-        <v>511</v>
-      </c>
+      <c r="C297" s="10"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="10"/>
     </row>
     <row r="298" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A298" s="13" t="s">
-        <v>512</v>
-      </c>
+      <c r="A298" s="10"/>
       <c r="B298" s="7"/>
-      <c r="C298" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="D298" s="14">
-        <v>2004</v>
-      </c>
-      <c r="E298" s="13" t="s">
-        <v>514</v>
-      </c>
+      <c r="C298" s="10"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="10"/>
     </row>
     <row r="299" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A299" s="13" t="s">
-        <v>515</v>
-      </c>
+      <c r="A299" s="10"/>
       <c r="B299" s="7"/>
-      <c r="C299" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="D299" s="14">
-        <v>2001</v>
-      </c>
-      <c r="E299" s="13" t="s">
-        <v>517</v>
-      </c>
+      <c r="C299" s="10"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="10"/>
     </row>
     <row r="300" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A300" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B300" s="7"/>
-      <c r="C300" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="D300" s="14">
-        <v>2006</v>
-      </c>
-      <c r="E300" s="13" t="s">
-        <v>520</v>
-      </c>
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I300">
+    <sortCondition ref="A1:A300"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6039,7 +6334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
